--- a/MATERIALES DE REFERENCIA FRX _BIOLOGICAS.xlsx
+++ b/MATERIALES DE REFERENCIA FRX _BIOLOGICAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joliden\Documents\Epsilon4\Estandares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1C900A-C157-4952-BB00-F2123B4CA480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E658AE9C-77C6-4CAF-A5FF-532815373124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,6 +859,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -866,9 +869,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2961,15 +2961,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BV2:BW2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BP2:BQ2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="BZ2:CA2"/>
     <mergeCell ref="BJ2:BK2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -2986,22 +2993,15 @@
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="BN2:BO2"/>
     <mergeCell ref="BR2:BS2"/>
-    <mergeCell ref="BT2:BU2"/>
-    <mergeCell ref="BV2:BW2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BP2:BQ2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3011,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1D40F9-98B1-4570-B18C-5EB6E398CCE9}">
   <dimension ref="A2:BR37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BR29" sqref="BR29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3083,134 +3083,134 @@
       <c r="F2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43" t="s">
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43" t="s">
+      <c r="T2" s="44"/>
+      <c r="U2" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43" t="s">
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="41" t="s">
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="43" t="s">
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43" t="s">
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43" t="s">
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43" t="s">
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43" t="s">
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43" t="s">
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43" t="s">
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43" t="s">
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43" t="s">
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43" t="s">
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43" t="s">
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="41" t="s">
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="43" t="s">
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="41" t="s">
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="41" t="s">
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="41" t="s">
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="43" t="s">
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="BN2" s="43"/>
-      <c r="BO2" s="41" t="s">
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="BP2" s="42"/>
-      <c r="BQ2" s="41" t="s">
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="BR2" s="42"/>
+      <c r="BR2" s="43"/>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -3412,7 +3412,7 @@
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="41">
         <v>2011</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -3620,7 +3620,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="8" t="s">
         <v>110</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="8" t="s">
         <v>113</v>
       </c>
@@ -4000,7 +4000,7 @@
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="8" t="s">
         <v>116</v>
       </c>
@@ -4186,7 +4186,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="41">
         <v>2013</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -4394,7 +4394,7 @@
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="12" t="s">
         <v>120</v>
       </c>
@@ -4588,7 +4588,7 @@
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="12" t="s">
         <v>123</v>
       </c>
@@ -4782,7 +4782,7 @@
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <v>2012</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -4970,7 +4970,7 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="13" t="s">
         <v>127</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="13" t="s">
         <v>129</v>
       </c>
@@ -5370,7 +5370,7 @@
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="13" t="s">
         <v>132</v>
       </c>
@@ -5576,7 +5576,7 @@
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="41">
         <v>2015</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -5784,7 +5784,7 @@
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>136</v>
       </c>
@@ -5990,7 +5990,7 @@
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="15" t="s">
         <v>138</v>
       </c>
@@ -6196,7 +6196,7 @@
       </c>
     </row>
     <row r="18" spans="1:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="15" t="s">
         <v>141</v>
       </c>
@@ -6402,7 +6402,7 @@
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
+      <c r="A19" s="41">
         <v>2016</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -6602,7 +6602,7 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="16" t="s">
         <v>146</v>
       </c>
@@ -6804,7 +6804,7 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="16" t="s">
         <v>149</v>
       </c>
@@ -7010,7 +7010,7 @@
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>150</v>
       </c>
@@ -7212,7 +7212,7 @@
       </c>
     </row>
     <row r="23" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44">
+      <c r="A23" s="41">
         <v>2017</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -7420,7 +7420,7 @@
       </c>
     </row>
     <row r="24" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="17" t="s">
         <v>153</v>
       </c>
@@ -7626,7 +7626,7 @@
       </c>
     </row>
     <row r="25" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="17" t="s">
         <v>154</v>
       </c>
@@ -7832,7 +7832,7 @@
       </c>
     </row>
     <row r="26" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="17" t="s">
         <v>156</v>
       </c>
@@ -8245,10 +8245,10 @@
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10">
-        <v>31200</v>
+        <v>31.2</v>
       </c>
       <c r="AF28" s="10">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="10">
         <v>1484</v>
@@ -8307,10 +8307,10 @@
       <c r="BO28" s="10"/>
       <c r="BP28" s="10"/>
       <c r="BQ28" s="10">
-        <v>86600</v>
+        <v>86.6</v>
       </c>
       <c r="BR28" s="10">
-        <v>2400</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
@@ -8896,6 +8896,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="BO2:BP2"/>
@@ -8912,28 +8934,6 @@
     <mergeCell ref="BM2:BN2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8944,8 +8944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB89C741-A2FA-45EB-9997-F5C7157E8A0C}">
   <dimension ref="B2:BP40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8955,138 +8955,138 @@
   <sheetData>
     <row r="2" spans="2:68" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="41" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43" t="s">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43" t="s">
+      <c r="T2" s="44"/>
+      <c r="U2" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43" t="s">
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="41" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43" t="s">
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43" t="s">
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43" t="s">
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43" t="s">
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43" t="s">
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43" t="s">
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43" t="s">
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43" t="s">
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43" t="s">
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43" t="s">
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43" t="s">
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="41" t="s">
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="43" t="s">
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="41" t="s">
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="41" t="s">
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="41" t="s">
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="43" t="s">
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="41" t="s">
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="BN2" s="42"/>
-      <c r="BO2" s="41" t="s">
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="BP2" s="42"/>
+      <c r="BP2" s="43"/>
     </row>
     <row r="3" spans="2:68" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
@@ -14934,11 +14934,11 @@
       </c>
       <c r="AC28">
         <f>Hoja2!AE28</f>
-        <v>31200</v>
+        <v>31.2</v>
       </c>
       <c r="AD28">
         <f>Hoja2!AF28</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AE28">
         <f>Hoja2!AG28</f>
@@ -14982,11 +14982,11 @@
       </c>
       <c r="BO28">
         <f>Hoja2!BQ28</f>
-        <v>86600</v>
+        <v>86.6</v>
       </c>
       <c r="BP28">
         <f>Hoja2!BR28</f>
-        <v>2400</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="29" spans="2:68" x14ac:dyDescent="0.25">
@@ -16691,23 +16691,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="BM2:BN2"/>
     <mergeCell ref="BO2:BP2"/>
     <mergeCell ref="O2:P2"/>
@@ -16724,6 +16707,23 @@
     <mergeCell ref="AW2:AX2"/>
     <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16733,8 +16733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157521E4-07CA-404E-9BEA-B7681E0B1F94}">
   <dimension ref="A1:AH38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19156,7 +19156,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3">
-        <v>31200</v>
+        <v>31.2</v>
       </c>
       <c r="P26" s="3">
         <v>1484</v>
@@ -19187,7 +19187,7 @@
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3">
-        <v>86600</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
@@ -20065,7 +20065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1326196B-D3B8-4B78-993C-FFEC7CD72832}">
   <dimension ref="A1:AH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AH27" sqref="AH27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -22483,7 +22485,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="P26" s="3">
         <v>57</v>
@@ -22514,7 +22516,7 @@
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3">
-        <v>2400</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
